--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H2">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>6457.790836807044</v>
+        <v>1917.101793597634</v>
       </c>
       <c r="R2">
-        <v>6457.790836807044</v>
+        <v>17253.91614237871</v>
       </c>
       <c r="S2">
-        <v>0.02486500623822511</v>
+        <v>0.004772119685651453</v>
       </c>
       <c r="T2">
-        <v>0.02486500623822511</v>
+        <v>0.004772119685651454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H3">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>7686.188654398626</v>
+        <v>2107.785344827806</v>
       </c>
       <c r="R3">
-        <v>7686.188654398626</v>
+        <v>18970.06810345025</v>
       </c>
       <c r="S3">
-        <v>0.02959481557539758</v>
+        <v>0.005246776134043683</v>
       </c>
       <c r="T3">
-        <v>0.02959481557539758</v>
+        <v>0.005246776134043684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H4">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>2807.646094372199</v>
+        <v>850.2371946116467</v>
       </c>
       <c r="R4">
-        <v>2807.646094372199</v>
+        <v>7652.134751504821</v>
       </c>
       <c r="S4">
-        <v>0.01081052939240297</v>
+        <v>0.002116441426026273</v>
       </c>
       <c r="T4">
-        <v>0.01081052939240297</v>
+        <v>0.002116441426026274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H5">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>3654.967693506005</v>
+        <v>1168.307928609046</v>
       </c>
       <c r="R5">
-        <v>3654.967693506005</v>
+        <v>10514.77135748142</v>
       </c>
       <c r="S5">
-        <v>0.01407304708315277</v>
+        <v>0.002908194694531728</v>
       </c>
       <c r="T5">
-        <v>0.01407304708315277</v>
+        <v>0.002908194694531729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H6">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>69346.5628231389</v>
+        <v>7075.438089552021</v>
       </c>
       <c r="R6">
-        <v>69346.5628231389</v>
+        <v>63678.94280596818</v>
       </c>
       <c r="S6">
-        <v>0.2670112366242839</v>
+        <v>0.01761243847589136</v>
       </c>
       <c r="T6">
-        <v>0.2670112366242839</v>
+        <v>0.01761243847589136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H7">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>82537.63211945261</v>
+        <v>7779.192927156728</v>
       </c>
       <c r="R7">
-        <v>82537.63211945261</v>
+        <v>70012.73634441054</v>
       </c>
       <c r="S7">
-        <v>0.3178019835887477</v>
+        <v>0.01936425067784204</v>
       </c>
       <c r="T7">
-        <v>0.3178019835887477</v>
+        <v>0.01936425067784204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H8">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>30149.7232085623</v>
+        <v>3137.966200855638</v>
       </c>
       <c r="R8">
-        <v>30149.7232085623</v>
+        <v>28241.69580770074</v>
       </c>
       <c r="S8">
-        <v>0.1160881599615769</v>
+        <v>0.007811139883141241</v>
       </c>
       <c r="T8">
-        <v>0.1160881599615769</v>
+        <v>0.007811139883141243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H9">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>39248.63055793495</v>
+        <v>4311.868282640089</v>
       </c>
       <c r="R9">
-        <v>39248.63055793495</v>
+        <v>38806.8145437608</v>
       </c>
       <c r="S9">
-        <v>0.1511224919367894</v>
+        <v>0.01073325974773022</v>
       </c>
       <c r="T9">
-        <v>0.1511224919367894</v>
+        <v>0.01073325974773022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H10">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>5586.045239666309</v>
+        <v>102323.245737249</v>
       </c>
       <c r="R10">
-        <v>5586.045239666309</v>
+        <v>920909.2116352407</v>
       </c>
       <c r="S10">
-        <v>0.02150844665634695</v>
+        <v>0.2547067541813391</v>
       </c>
       <c r="T10">
-        <v>0.02150844665634695</v>
+        <v>0.2547067541813391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H11">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>6648.620035719426</v>
+        <v>112500.7751390451</v>
       </c>
       <c r="R11">
-        <v>6648.620035719426</v>
+        <v>1012506.976251406</v>
       </c>
       <c r="S11">
-        <v>0.02559977286992635</v>
+        <v>0.2800410314595761</v>
       </c>
       <c r="T11">
-        <v>0.02559977286992635</v>
+        <v>0.2800410314595761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H12">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>2428.638290782744</v>
+        <v>45380.49554266717</v>
       </c>
       <c r="R12">
-        <v>2428.638290782744</v>
+        <v>408424.4598840046</v>
       </c>
       <c r="S12">
-        <v>0.00935120194765603</v>
+        <v>0.1129627841604494</v>
       </c>
       <c r="T12">
-        <v>0.00935120194765603</v>
+        <v>0.1129627841604494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H13">
+        <v>1999.424881</v>
+      </c>
+      <c r="I13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>62357.17877635564</v>
+      </c>
+      <c r="R13">
+        <v>561214.6089872007</v>
+      </c>
+      <c r="S13">
+        <v>0.1552217630665832</v>
+      </c>
+      <c r="T13">
+        <v>0.1552217630665832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H14">
+        <v>315.012023</v>
+      </c>
+      <c r="I14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N14">
+        <v>460.587052</v>
+      </c>
+      <c r="O14">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P14">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q14">
+        <v>16121.16211312513</v>
+      </c>
+      <c r="R14">
+        <v>145090.4590181262</v>
+      </c>
+      <c r="S14">
+        <v>0.040129384538967</v>
+      </c>
+      <c r="T14">
+        <v>0.04012938453896701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H15">
+        <v>315.012023</v>
+      </c>
+      <c r="I15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q15">
+        <v>17724.64527294172</v>
+      </c>
+      <c r="R15">
+        <v>159521.8074564755</v>
+      </c>
+      <c r="S15">
+        <v>0.04412083328630325</v>
+      </c>
+      <c r="T15">
+        <v>0.04412083328630325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="H13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="I13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="J13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N13">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P13">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q13">
-        <v>3161.578843507131</v>
-      </c>
-      <c r="R13">
-        <v>3161.578843507131</v>
-      </c>
-      <c r="S13">
-        <v>0.01217330812549423</v>
-      </c>
-      <c r="T13">
-        <v>0.01217330812549423</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H16">
+        <v>315.012023</v>
+      </c>
+      <c r="I16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N16">
+        <v>204.27097</v>
+      </c>
+      <c r="O16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q16">
+        <v>7149.756833319145</v>
+      </c>
+      <c r="R16">
+        <v>64347.81149987231</v>
+      </c>
+      <c r="S16">
+        <v>0.01779743540267344</v>
+      </c>
+      <c r="T16">
+        <v>0.01779743540267344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H17">
+        <v>315.012023</v>
+      </c>
+      <c r="I17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>93.562673</v>
+      </c>
+      <c r="N17">
+        <v>280.688019</v>
+      </c>
+      <c r="O17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q17">
+        <v>9824.455633005826</v>
+      </c>
+      <c r="R17">
+        <v>88420.10069705243</v>
+      </c>
+      <c r="S17">
+        <v>0.02445539317925046</v>
+      </c>
+      <c r="T17">
+        <v>0.02445539317925046</v>
       </c>
     </row>
   </sheetData>
